--- a/frontend/reporte_3.xlsx
+++ b/frontend/reporte_3.xlsx
@@ -30,7 +30,7 @@
     <t>Generado el:</t>
   </si>
   <si>
-    <t>17/7/2025 a las 10:31:12 p.m.</t>
+    <t>17/7/2025 a las 10:39:28 p.m.</t>
   </si>
   <si>
     <t>RESUMEN FINANCIERO</t>
